--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.158107333333333</v>
+        <v>0.1825913333333333</v>
       </c>
       <c r="H2">
-        <v>6.474322</v>
+        <v>0.547774</v>
       </c>
       <c r="I2">
-        <v>0.04789414999021155</v>
+        <v>0.004164187522066756</v>
       </c>
       <c r="J2">
-        <v>0.04789414999021156</v>
+        <v>0.004164187522066756</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N2">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O2">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P2">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q2">
-        <v>19.00623691267155</v>
+        <v>0.2920351178026667</v>
       </c>
       <c r="R2">
-        <v>171.056132214044</v>
+        <v>2.628316060224</v>
       </c>
       <c r="S2">
-        <v>0.008303304364756056</v>
+        <v>0.0001646093458993509</v>
       </c>
       <c r="T2">
-        <v>0.00830330436475606</v>
+        <v>0.0001646093458993509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.158107333333333</v>
+        <v>0.1825913333333333</v>
       </c>
       <c r="H3">
-        <v>6.474322</v>
+        <v>0.547774</v>
       </c>
       <c r="I3">
-        <v>0.04789414999021155</v>
+        <v>0.004164187522066756</v>
       </c>
       <c r="J3">
-        <v>0.04789414999021156</v>
+        <v>0.004164187522066756</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q3">
-        <v>40.50096437159822</v>
+        <v>3.426671589347556</v>
       </c>
       <c r="R3">
-        <v>364.508679344384</v>
+        <v>30.840044304128</v>
       </c>
       <c r="S3">
-        <v>0.01769376209444773</v>
+        <v>0.001931487463489022</v>
       </c>
       <c r="T3">
-        <v>0.01769376209444773</v>
+        <v>0.001931487463489022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.158107333333333</v>
+        <v>0.1825913333333333</v>
       </c>
       <c r="H4">
-        <v>6.474322</v>
+        <v>0.547774</v>
       </c>
       <c r="I4">
-        <v>0.04789414999021155</v>
+        <v>0.004164187522066756</v>
       </c>
       <c r="J4">
-        <v>0.04789414999021156</v>
+        <v>0.004164187522066756</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N4">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q4">
-        <v>50.12235358412266</v>
+        <v>3.669020805616444</v>
       </c>
       <c r="R4">
-        <v>451.101182257104</v>
+        <v>33.021187250548</v>
       </c>
       <c r="S4">
-        <v>0.02189708353100777</v>
+        <v>0.002068090712678383</v>
       </c>
       <c r="T4">
-        <v>0.02189708353100777</v>
+        <v>0.002068090712678383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>124.073609</v>
       </c>
       <c r="I5">
-        <v>0.9178412873614971</v>
+        <v>0.9432097441930239</v>
       </c>
       <c r="J5">
-        <v>0.9178412873614971</v>
+        <v>0.9432097441930242</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N5">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O5">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P5">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q5">
-        <v>364.2346499392797</v>
+        <v>66.14744588190933</v>
       </c>
       <c r="R5">
-        <v>3278.111849453518</v>
+        <v>595.327012937184</v>
       </c>
       <c r="S5">
-        <v>0.1591241429080507</v>
+        <v>0.03728485766184926</v>
       </c>
       <c r="T5">
-        <v>0.1591241429080507</v>
+        <v>0.03728485766184927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>124.073609</v>
       </c>
       <c r="I6">
-        <v>0.9178412873614971</v>
+        <v>0.9432097441930239</v>
       </c>
       <c r="J6">
-        <v>0.9178412873614971</v>
+        <v>0.9432097441930242</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q6">
         <v>776.1586182405832</v>
@@ -818,10 +818,10 @@
         <v>6985.427564165249</v>
       </c>
       <c r="S6">
-        <v>0.3390824428944882</v>
+        <v>0.4374917764138836</v>
       </c>
       <c r="T6">
-        <v>0.3390824428944882</v>
+        <v>0.4374917764138837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>124.073609</v>
       </c>
       <c r="I7">
-        <v>0.9178412873614971</v>
+        <v>0.9432097441930239</v>
       </c>
       <c r="J7">
-        <v>0.9178412873614971</v>
+        <v>0.9432097441930242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N7">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q7">
-        <v>960.5424785415653</v>
+        <v>831.0519536321908</v>
       </c>
       <c r="R7">
-        <v>8644.882306874088</v>
+        <v>7479.467582689717</v>
       </c>
       <c r="S7">
-        <v>0.4196347015589582</v>
+        <v>0.4684331101172911</v>
       </c>
       <c r="T7">
-        <v>0.4196347015589582</v>
+        <v>0.4684331101172912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.543959</v>
+        <v>2.307548333333334</v>
       </c>
       <c r="H8">
-        <v>4.631877</v>
+        <v>6.922645</v>
       </c>
       <c r="I8">
-        <v>0.03426456264829138</v>
+        <v>0.05262606828490914</v>
       </c>
       <c r="J8">
-        <v>0.03426456264829138</v>
+        <v>0.05262606828490914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N8">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O8">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P8">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q8">
-        <v>13.597493546406</v>
+        <v>3.690674343946667</v>
       </c>
       <c r="R8">
-        <v>122.377441917654</v>
+        <v>33.21606909552</v>
       </c>
       <c r="S8">
-        <v>0.005940372522576603</v>
+        <v>0.002080296007739345</v>
       </c>
       <c r="T8">
-        <v>0.005940372522576604</v>
+        <v>0.002080296007739345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.543959</v>
+        <v>2.307548333333334</v>
       </c>
       <c r="H9">
-        <v>4.631877</v>
+        <v>6.922645</v>
       </c>
       <c r="I9">
-        <v>0.03426456264829138</v>
+        <v>0.05262606828490914</v>
       </c>
       <c r="J9">
-        <v>0.03426456264829138</v>
+        <v>0.05262606828490914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q9">
-        <v>28.97530974681601</v>
+        <v>43.30550727971556</v>
       </c>
       <c r="R9">
-        <v>260.7777877213441</v>
+        <v>389.74956551744</v>
       </c>
       <c r="S9">
-        <v>0.01265851925325065</v>
+        <v>0.02440970552031488</v>
       </c>
       <c r="T9">
-        <v>0.01265851925325065</v>
+        <v>0.02440970552031488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.543959</v>
+        <v>2.307548333333334</v>
       </c>
       <c r="H10">
-        <v>4.631877</v>
+        <v>6.922645</v>
       </c>
       <c r="I10">
-        <v>0.03426456264829138</v>
+        <v>0.05262606828490914</v>
       </c>
       <c r="J10">
-        <v>0.03426456264829138</v>
+        <v>0.05262606828490914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N10">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q10">
-        <v>35.858670105096</v>
+        <v>46.36826233975444</v>
       </c>
       <c r="R10">
-        <v>322.728030945864</v>
+        <v>417.31436105779</v>
       </c>
       <c r="S10">
-        <v>0.01566567087246412</v>
+        <v>0.02613606675685492</v>
       </c>
       <c r="T10">
-        <v>0.01566567087246412</v>
+        <v>0.02613606675685492</v>
       </c>
     </row>
   </sheetData>
